--- a/data/gamecorg.xlsx
+++ b/data/gamecorg.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="224">
   <si>
     <t>Halloween</t>
   </si>
@@ -54,6 +54,321 @@
     <t>Pamela Voorhees</t>
   </si>
   <si>
+    <t>Camp Crystal Lake</t>
+  </si>
+  <si>
+    <t>A Nightmare on Elm Street</t>
+  </si>
+  <si>
+    <t>Freddie Krueger</t>
+  </si>
+  <si>
+    <t>Nancy Thompson</t>
+  </si>
+  <si>
+    <t>Wes Craven</t>
+  </si>
+  <si>
+    <t>Heather Langenkamp</t>
+  </si>
+  <si>
+    <t>Robert Englund</t>
+  </si>
+  <si>
+    <t>The Shining</t>
+  </si>
+  <si>
+    <t>Stanley Kubrick</t>
+  </si>
+  <si>
+    <t>Jack Nicholson</t>
+  </si>
+  <si>
+    <t>Jack Torrance</t>
+  </si>
+  <si>
+    <t>Shelley Duvall</t>
+  </si>
+  <si>
+    <t>Wendy Torrance</t>
+  </si>
+  <si>
+    <t>Danny Torrance</t>
+  </si>
+  <si>
+    <t>Dick Hallorann</t>
+  </si>
+  <si>
+    <t>The Exorcist</t>
+  </si>
+  <si>
+    <t>William Peter Blatty</t>
+  </si>
+  <si>
+    <t>Linda Blair</t>
+  </si>
+  <si>
+    <t>Regan MacnNeil</t>
+  </si>
+  <si>
+    <t>Father Karras</t>
+  </si>
+  <si>
+    <t>Scream</t>
+  </si>
+  <si>
+    <t>Kevin Williamson</t>
+  </si>
+  <si>
+    <t>Courtney Cox</t>
+  </si>
+  <si>
+    <t>Neve campbell</t>
+  </si>
+  <si>
+    <t>David Arquette</t>
+  </si>
+  <si>
+    <t>Ghostface</t>
+  </si>
+  <si>
+    <t>Sidney Prescott</t>
+  </si>
+  <si>
+    <t>Gale Weathers</t>
+  </si>
+  <si>
+    <t>Dewey Riley</t>
+  </si>
+  <si>
+    <t>Candyman</t>
+  </si>
+  <si>
+    <t>Clive Barker</t>
+  </si>
+  <si>
+    <t>Tony Todd</t>
+  </si>
+  <si>
+    <t>Hellraiser</t>
+  </si>
+  <si>
+    <t>Cenobites</t>
+  </si>
+  <si>
+    <t>Pinhead</t>
+  </si>
+  <si>
+    <t>It Follows</t>
+  </si>
+  <si>
+    <t>The Strangers</t>
+  </si>
+  <si>
+    <t>The Mist</t>
+  </si>
+  <si>
+    <t>The Fog</t>
+  </si>
+  <si>
+    <t>The Thing</t>
+  </si>
+  <si>
+    <t>The Ring</t>
+  </si>
+  <si>
+    <t>Saw</t>
+  </si>
+  <si>
+    <t>Trick 'r Treat</t>
+  </si>
+  <si>
+    <t>American Psycho</t>
+  </si>
+  <si>
+    <t>The Silence of the Lambs</t>
+  </si>
+  <si>
+    <t>Hannibal Lecter</t>
+  </si>
+  <si>
+    <t>Clarice Starling</t>
+  </si>
+  <si>
+    <t>Gremlins</t>
+  </si>
+  <si>
+    <t>Alien</t>
+  </si>
+  <si>
+    <t>Ridley Scott</t>
+  </si>
+  <si>
+    <t>Siourney Weaver</t>
+  </si>
+  <si>
+    <t>Ripley</t>
+  </si>
+  <si>
+    <t>Black Christmas</t>
+  </si>
+  <si>
+    <t>Nope</t>
+  </si>
+  <si>
+    <t>Midsommar</t>
+  </si>
+  <si>
+    <t>Hereditary</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Pearl</t>
+  </si>
+  <si>
+    <t>Us</t>
+  </si>
+  <si>
+    <t>Get Out</t>
+  </si>
+  <si>
+    <t>A Quiet Place</t>
+  </si>
+  <si>
+    <t>It</t>
+  </si>
+  <si>
+    <t>Pennywise</t>
+  </si>
+  <si>
+    <t>Jeepers Creepers</t>
+  </si>
+  <si>
+    <t>Freaky</t>
+  </si>
+  <si>
+    <t>Urban Legend</t>
+  </si>
+  <si>
+    <t>Cabin in the Woods</t>
+  </si>
+  <si>
+    <t>Suspiria</t>
+  </si>
+  <si>
+    <t>Sleepaway Camp</t>
+  </si>
+  <si>
+    <t>Child's Play</t>
+  </si>
+  <si>
+    <t>Chucky</t>
+  </si>
+  <si>
+    <t>Unfriended</t>
+  </si>
+  <si>
+    <t>Happy Death Day</t>
+  </si>
+  <si>
+    <t>Ready or Not</t>
+  </si>
+  <si>
+    <t>You're Next</t>
+  </si>
+  <si>
+    <t>The Witch</t>
+  </si>
+  <si>
+    <t>As Above So Below</t>
+  </si>
+  <si>
+    <t>Final Girls</t>
+  </si>
+  <si>
+    <t>Krampus</t>
+  </si>
+  <si>
+    <t>The Visit</t>
+  </si>
+  <si>
+    <t>The Babadook</t>
+  </si>
+  <si>
+    <t>The Lighthouse</t>
+  </si>
+  <si>
+    <t>Lights Out</t>
+  </si>
+  <si>
+    <t>Sinister</t>
+  </si>
+  <si>
+    <t>The Conjuring</t>
+  </si>
+  <si>
+    <t>Insidious</t>
+  </si>
+  <si>
+    <t>Fresh</t>
+  </si>
+  <si>
+    <t>Green Room</t>
+  </si>
+  <si>
+    <t>Doctor Sleep</t>
+  </si>
+  <si>
+    <t>Saint Maud</t>
+  </si>
+  <si>
+    <t>The Love Witch</t>
+  </si>
+  <si>
+    <t>The Purge</t>
+  </si>
+  <si>
+    <t>Lake Mungo</t>
+  </si>
+  <si>
+    <t>The Blair Witch Project</t>
+  </si>
+  <si>
+    <t>Paranormal Activity</t>
+  </si>
+  <si>
+    <t>Pet Sematary</t>
+  </si>
+  <si>
+    <t>Christine</t>
+  </si>
+  <si>
+    <t>Silent Hill</t>
+  </si>
+  <si>
+    <t>Resident Evil</t>
+  </si>
+  <si>
+    <t>Dawn of the Dead</t>
+  </si>
+  <si>
+    <t>Night of the Living Dead</t>
+  </si>
+  <si>
+    <t>John Romero</t>
+  </si>
+  <si>
+    <t>The Lost Boys</t>
+  </si>
+  <si>
+    <t>Fear Street</t>
+  </si>
+  <si>
+    <t>Misery</t>
+  </si>
+  <si>
     <t>Frodo Baggins</t>
   </si>
   <si>
@@ -87,6 +402,96 @@
     <t>Ian McKellen</t>
   </si>
   <si>
+    <t>Gollum</t>
+  </si>
+  <si>
+    <t>Andy Serkis</t>
+  </si>
+  <si>
+    <t>Riders of Rohan</t>
+  </si>
+  <si>
+    <t>Balrog</t>
+  </si>
+  <si>
+    <t>Mines of Moria</t>
+  </si>
+  <si>
+    <t>Elves</t>
+  </si>
+  <si>
+    <t>Dwarves</t>
+  </si>
+  <si>
+    <t>Hobbits</t>
+  </si>
+  <si>
+    <t>Men</t>
+  </si>
+  <si>
+    <t>Isildur</t>
+  </si>
+  <si>
+    <t>Boromir</t>
+  </si>
+  <si>
+    <t>Denethor</t>
+  </si>
+  <si>
+    <t>Saruman</t>
+  </si>
+  <si>
+    <t>Christopher Lee</t>
+  </si>
+  <si>
+    <t>Gimli</t>
+  </si>
+  <si>
+    <t>Arwen</t>
+  </si>
+  <si>
+    <t>Faramir</t>
+  </si>
+  <si>
+    <t>Witch-king of Angmar</t>
+  </si>
+  <si>
+    <t>Ringwraiths</t>
+  </si>
+  <si>
+    <t>Grima Wormtongue</t>
+  </si>
+  <si>
+    <t>Galadriel</t>
+  </si>
+  <si>
+    <t>Pippin</t>
+  </si>
+  <si>
+    <t>Merry</t>
+  </si>
+  <si>
+    <t>Ents</t>
+  </si>
+  <si>
+    <t>Treebeard</t>
+  </si>
+  <si>
+    <t>Sauron</t>
+  </si>
+  <si>
+    <t>Elrond</t>
+  </si>
+  <si>
+    <t>Theoden</t>
+  </si>
+  <si>
+    <t>Smaug</t>
+  </si>
+  <si>
+    <t>Benedict Cumberbatch</t>
+  </si>
+  <si>
     <t>Luke Skywalker</t>
   </si>
   <si>
@@ -121,6 +526,165 @@
   </si>
   <si>
     <t>George Lucas</t>
+  </si>
+  <si>
+    <t>Wookies</t>
+  </si>
+  <si>
+    <t>Boba Fett</t>
+  </si>
+  <si>
+    <t>Anakin Skywalker</t>
+  </si>
+  <si>
+    <t>Obi-Wan Kenobi</t>
+  </si>
+  <si>
+    <t>Ewan McGregor</t>
+  </si>
+  <si>
+    <t>Bail Organa</t>
+  </si>
+  <si>
+    <t>Tatooine</t>
+  </si>
+  <si>
+    <t>Hoth</t>
+  </si>
+  <si>
+    <t>Mustafar</t>
+  </si>
+  <si>
+    <t>Coruscant</t>
+  </si>
+  <si>
+    <t>Alderaan</t>
+  </si>
+  <si>
+    <t>Kashkyyyk</t>
+  </si>
+  <si>
+    <t>Naboo</t>
+  </si>
+  <si>
+    <t>Kamino</t>
+  </si>
+  <si>
+    <t>Bespin</t>
+  </si>
+  <si>
+    <t>Palpatine</t>
+  </si>
+  <si>
+    <t>Darth Sidious</t>
+  </si>
+  <si>
+    <t>Darth Maul</t>
+  </si>
+  <si>
+    <t>Count Dooku</t>
+  </si>
+  <si>
+    <t>Yoda</t>
+  </si>
+  <si>
+    <t>Younglings</t>
+  </si>
+  <si>
+    <t>Podracing</t>
+  </si>
+  <si>
+    <t>Grand Moff Tarkin</t>
+  </si>
+  <si>
+    <t>Jar Jar Binks</t>
+  </si>
+  <si>
+    <t>Vice-Admiral Holdo</t>
+  </si>
+  <si>
+    <t>Salacious B. Crumb</t>
+  </si>
+  <si>
+    <t>Wicket</t>
+  </si>
+  <si>
+    <t>Ewoks</t>
+  </si>
+  <si>
+    <t>Sebulba</t>
+  </si>
+  <si>
+    <t>Wedge Antilles</t>
+  </si>
+  <si>
+    <t>Finn</t>
+  </si>
+  <si>
+    <t>Rey</t>
+  </si>
+  <si>
+    <t>Poe Dameron</t>
+  </si>
+  <si>
+    <t>Jabba the Hutt</t>
+  </si>
+  <si>
+    <t>Mon Mothma</t>
+  </si>
+  <si>
+    <t>Smuggler</t>
+  </si>
+  <si>
+    <t>Bounty Hunter</t>
+  </si>
+  <si>
+    <t>The Mandalorian</t>
+  </si>
+  <si>
+    <t>Cassian Andor</t>
+  </si>
+  <si>
+    <t>Jyn Erso</t>
+  </si>
+  <si>
+    <t>Saw Gerrera</t>
+  </si>
+  <si>
+    <t>The Phantom Menace</t>
+  </si>
+  <si>
+    <t>Attack of the Clones</t>
+  </si>
+  <si>
+    <t>Revenge of the Sith</t>
+  </si>
+  <si>
+    <t>A New Hope</t>
+  </si>
+  <si>
+    <t>The Empire Strikes Back</t>
+  </si>
+  <si>
+    <t>Return of the Jedi</t>
+  </si>
+  <si>
+    <t>The Force Awakens</t>
+  </si>
+  <si>
+    <t>The Last Jedi</t>
+  </si>
+  <si>
+    <t>The Rise of Skywalker</t>
+  </si>
+  <si>
+    <t>Solo</t>
+  </si>
+  <si>
+    <t>Rogue One</t>
+  </si>
+  <si>
+    <t>Millenium Falcon</t>
   </si>
 </sst>
 </file>
@@ -453,6 +1017,531 @@
         <v>12</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -470,57 +1559,212 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -543,62 +1787,332 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>32</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>35</v>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/data/gamecorg.xlsx
+++ b/data/gamecorg.xlsx
@@ -6,6 +6,8 @@
     <sheet state="visible" name="Horror Movies" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Lord of the Rings" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="Star Wars" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Stardew Valley" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="NBC Sitcoms" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -13,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="444">
   <si>
     <t>Halloween</t>
   </si>
@@ -492,6 +494,45 @@
     <t>Benedict Cumberbatch</t>
   </si>
   <si>
+    <t>Dead Marshes</t>
+  </si>
+  <si>
+    <t>Middle-earth</t>
+  </si>
+  <si>
+    <t>Fellowship of the Ring</t>
+  </si>
+  <si>
+    <t>Two Towers</t>
+  </si>
+  <si>
+    <t>The Return of the King</t>
+  </si>
+  <si>
+    <t>Mithril</t>
+  </si>
+  <si>
+    <t>Peter Jackson</t>
+  </si>
+  <si>
+    <t>J.R.R. Tolkien</t>
+  </si>
+  <si>
+    <t>Smeagol</t>
+  </si>
+  <si>
+    <t>Orcs</t>
+  </si>
+  <si>
+    <t>Gondor</t>
+  </si>
+  <si>
+    <t>Goblins</t>
+  </si>
+  <si>
+    <t>Shire</t>
+  </si>
+  <si>
     <t>Luke Skywalker</t>
   </si>
   <si>
@@ -685,6 +726,627 @@
   </si>
   <si>
     <t>Millenium Falcon</t>
+  </si>
+  <si>
+    <t>Stormtrooper</t>
+  </si>
+  <si>
+    <t>Clone Trooper</t>
+  </si>
+  <si>
+    <t>Republic</t>
+  </si>
+  <si>
+    <t>Empire</t>
+  </si>
+  <si>
+    <t>Senate</t>
+  </si>
+  <si>
+    <t>Death Star</t>
+  </si>
+  <si>
+    <t>Star Destroyer</t>
+  </si>
+  <si>
+    <t>Starkiller Base</t>
+  </si>
+  <si>
+    <t>Yavin</t>
+  </si>
+  <si>
+    <t>Endor</t>
+  </si>
+  <si>
+    <t>Cad Bane</t>
+  </si>
+  <si>
+    <t>Captain Phasma</t>
+  </si>
+  <si>
+    <t>Rose Tico</t>
+  </si>
+  <si>
+    <t>Droids</t>
+  </si>
+  <si>
+    <t>Bossk</t>
+  </si>
+  <si>
+    <t>Claudia Gray</t>
+  </si>
+  <si>
+    <t>Mike Chen</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>Elliott</t>
+  </si>
+  <si>
+    <t>Harvey</t>
+  </si>
+  <si>
+    <t>Sam</t>
+  </si>
+  <si>
+    <t>Sebastian</t>
+  </si>
+  <si>
+    <t>Shane</t>
+  </si>
+  <si>
+    <t>Abigail</t>
+  </si>
+  <si>
+    <t>Emily</t>
+  </si>
+  <si>
+    <t>Haley</t>
+  </si>
+  <si>
+    <t>Leah</t>
+  </si>
+  <si>
+    <t>Maru</t>
+  </si>
+  <si>
+    <t>Penny</t>
+  </si>
+  <si>
+    <t>Caroline</t>
+  </si>
+  <si>
+    <t>Clint</t>
+  </si>
+  <si>
+    <t>Demetrius</t>
+  </si>
+  <si>
+    <t>Dwarf</t>
+  </si>
+  <si>
+    <t>Evelyn</t>
+  </si>
+  <si>
+    <t>George</t>
+  </si>
+  <si>
+    <t>Gus</t>
+  </si>
+  <si>
+    <t>Jas</t>
+  </si>
+  <si>
+    <t>Jodi</t>
+  </si>
+  <si>
+    <t>Kent</t>
+  </si>
+  <si>
+    <t>Krobus</t>
+  </si>
+  <si>
+    <t>Leo</t>
+  </si>
+  <si>
+    <t>Lewis</t>
+  </si>
+  <si>
+    <t>Linus</t>
+  </si>
+  <si>
+    <t>Marnie</t>
+  </si>
+  <si>
+    <t>Pam</t>
+  </si>
+  <si>
+    <t>Pierre</t>
+  </si>
+  <si>
+    <t>Robin</t>
+  </si>
+  <si>
+    <t>Sandy</t>
+  </si>
+  <si>
+    <t>Vincent</t>
+  </si>
+  <si>
+    <t>Wizard</t>
+  </si>
+  <si>
+    <t>Birdie</t>
+  </si>
+  <si>
+    <t>Bouncer</t>
+  </si>
+  <si>
+    <t>Governor</t>
+  </si>
+  <si>
+    <t>Grandpa</t>
+  </si>
+  <si>
+    <t>Gunther</t>
+  </si>
+  <si>
+    <t>Marlon</t>
+  </si>
+  <si>
+    <t>Morris</t>
+  </si>
+  <si>
+    <t>Mr. Qui</t>
+  </si>
+  <si>
+    <t>Professor Snail</t>
+  </si>
+  <si>
+    <t>Golden Pumpkin</t>
+  </si>
+  <si>
+    <t>Junimos</t>
+  </si>
+  <si>
+    <t>Iridium</t>
+  </si>
+  <si>
+    <t>Prismatic Shard</t>
+  </si>
+  <si>
+    <t>Hardwood</t>
+  </si>
+  <si>
+    <t>Fibre</t>
+  </si>
+  <si>
+    <t>Battery Pack</t>
+  </si>
+  <si>
+    <t>Coffee</t>
+  </si>
+  <si>
+    <t>Pepper Poppers</t>
+  </si>
+  <si>
+    <t>Miner's Treat</t>
+  </si>
+  <si>
+    <t>Triple Shot Espresso</t>
+  </si>
+  <si>
+    <t>Blue Jazz</t>
+  </si>
+  <si>
+    <t>Starfruit</t>
+  </si>
+  <si>
+    <t>Wine</t>
+  </si>
+  <si>
+    <t>Pale Ale</t>
+  </si>
+  <si>
+    <t>Beer</t>
+  </si>
+  <si>
+    <t>Chickens</t>
+  </si>
+  <si>
+    <t>Cows</t>
+  </si>
+  <si>
+    <t>Pigs</t>
+  </si>
+  <si>
+    <t>Seinfeld</t>
+  </si>
+  <si>
+    <t>Jerry Seinfeld</t>
+  </si>
+  <si>
+    <t>Elaine Benes</t>
+  </si>
+  <si>
+    <t>George Costanza</t>
+  </si>
+  <si>
+    <t>Kramer</t>
+  </si>
+  <si>
+    <t>Julia-Louis Dreyfus</t>
+  </si>
+  <si>
+    <t>Jason Alexander</t>
+  </si>
+  <si>
+    <t>Michael Richards</t>
+  </si>
+  <si>
+    <t>Larry David</t>
+  </si>
+  <si>
+    <t>Rachel Green</t>
+  </si>
+  <si>
+    <t>Phoebe Buffay</t>
+  </si>
+  <si>
+    <t>Ross Geller</t>
+  </si>
+  <si>
+    <t>Monical Geller</t>
+  </si>
+  <si>
+    <t>Joey Tribbiani</t>
+  </si>
+  <si>
+    <t>Chandler Bing</t>
+  </si>
+  <si>
+    <t>Jennifer Aniston</t>
+  </si>
+  <si>
+    <t>Lisa Kudrow</t>
+  </si>
+  <si>
+    <t>David Schwimmer</t>
+  </si>
+  <si>
+    <t>Matthew Perry</t>
+  </si>
+  <si>
+    <t>Courteney Cox</t>
+  </si>
+  <si>
+    <t>Matt LeBlanc</t>
+  </si>
+  <si>
+    <t>Central Perk</t>
+  </si>
+  <si>
+    <t>Soup Nazi</t>
+  </si>
+  <si>
+    <t>Regina Phalange</t>
+  </si>
+  <si>
+    <t>Ugly Naked Guy</t>
+  </si>
+  <si>
+    <t>Friends</t>
+  </si>
+  <si>
+    <t>The Office</t>
+  </si>
+  <si>
+    <t>Steve Carell</t>
+  </si>
+  <si>
+    <t>Michael Scott</t>
+  </si>
+  <si>
+    <t>Jenna Fischer</t>
+  </si>
+  <si>
+    <t>Pam Beesly</t>
+  </si>
+  <si>
+    <t>John Krasinski</t>
+  </si>
+  <si>
+    <t>Jim Halpert</t>
+  </si>
+  <si>
+    <t>Rainn Wilson</t>
+  </si>
+  <si>
+    <t>Dwight Schrute</t>
+  </si>
+  <si>
+    <t>Mindy Kaling</t>
+  </si>
+  <si>
+    <t>Kelly Kapoor</t>
+  </si>
+  <si>
+    <t>Dunder Mifflin</t>
+  </si>
+  <si>
+    <t>Scranton</t>
+  </si>
+  <si>
+    <t>Electric City</t>
+  </si>
+  <si>
+    <t>Kevin Malone</t>
+  </si>
+  <si>
+    <t>Creed Bratton</t>
+  </si>
+  <si>
+    <t>Ed Helms</t>
+  </si>
+  <si>
+    <t>Andy Bernard</t>
+  </si>
+  <si>
+    <t>Regional Manager</t>
+  </si>
+  <si>
+    <t>30 Rock</t>
+  </si>
+  <si>
+    <t>Tina Fey</t>
+  </si>
+  <si>
+    <t>Liz Lemon</t>
+  </si>
+  <si>
+    <t>Tracy Morgan</t>
+  </si>
+  <si>
+    <t>Tracy Jordan</t>
+  </si>
+  <si>
+    <t>Jack McBrayer</t>
+  </si>
+  <si>
+    <t>Kenneth Parcel</t>
+  </si>
+  <si>
+    <t>Jane Krakowski</t>
+  </si>
+  <si>
+    <t>Jenna Maroney</t>
+  </si>
+  <si>
+    <t>Alec Baldwin</t>
+  </si>
+  <si>
+    <t>Jack Donaghy</t>
+  </si>
+  <si>
+    <t>The Girlie Show</t>
+  </si>
+  <si>
+    <t>Fart Doctor</t>
+  </si>
+  <si>
+    <t>Leo Spaceman</t>
+  </si>
+  <si>
+    <t>Night Cheese</t>
+  </si>
+  <si>
+    <t>Frank Rossitano</t>
+  </si>
+  <si>
+    <t>Judah Friedlander</t>
+  </si>
+  <si>
+    <t>Dennis Duffy</t>
+  </si>
+  <si>
+    <t>Rural Juror</t>
+  </si>
+  <si>
+    <t>EGOT</t>
+  </si>
+  <si>
+    <t>Hard to Watch</t>
+  </si>
+  <si>
+    <t>Astronaut Mike Dexter</t>
+  </si>
+  <si>
+    <t>Muffin Top</t>
+  </si>
+  <si>
+    <t>Werewolf Bar Mitzvah</t>
+  </si>
+  <si>
+    <t>Mickey Rourke</t>
+  </si>
+  <si>
+    <t>DotCom</t>
+  </si>
+  <si>
+    <t>Grizz</t>
+  </si>
+  <si>
+    <t>Leap Day Williams</t>
+  </si>
+  <si>
+    <t>Homonym</t>
+  </si>
+  <si>
+    <t>Black Frasier</t>
+  </si>
+  <si>
+    <t>Bitch Hunter</t>
+  </si>
+  <si>
+    <t>Parks and Rec</t>
+  </si>
+  <si>
+    <t>Amy Poehler</t>
+  </si>
+  <si>
+    <t>Leslie Knope</t>
+  </si>
+  <si>
+    <t>Aubrey Plaza</t>
+  </si>
+  <si>
+    <t>April Ludgate</t>
+  </si>
+  <si>
+    <t>Rashida Jones</t>
+  </si>
+  <si>
+    <t>Ann Perkins</t>
+  </si>
+  <si>
+    <t>Nick Offerman</t>
+  </si>
+  <si>
+    <t>Ron Swanson</t>
+  </si>
+  <si>
+    <t>Adam Scott</t>
+  </si>
+  <si>
+    <t>Ben Wyatt</t>
+  </si>
+  <si>
+    <t>Chris Pratt</t>
+  </si>
+  <si>
+    <t>Andy Dwyer</t>
+  </si>
+  <si>
+    <t>Rob Lowe</t>
+  </si>
+  <si>
+    <t>Chris Traeger</t>
+  </si>
+  <si>
+    <t>Pawnee</t>
+  </si>
+  <si>
+    <t>Jean-Ralphio</t>
+  </si>
+  <si>
+    <t>Harvest Festival</t>
+  </si>
+  <si>
+    <t>Entertainment 720</t>
+  </si>
+  <si>
+    <t>Aziz Ansari</t>
+  </si>
+  <si>
+    <t>Tom Haverford</t>
+  </si>
+  <si>
+    <t>Tammy Swanson</t>
+  </si>
+  <si>
+    <t>Lil' Sebastian</t>
+  </si>
+  <si>
+    <t>Burt Macklin</t>
+  </si>
+  <si>
+    <t>Perd Hapley</t>
+  </si>
+  <si>
+    <t>Calzones</t>
+  </si>
+  <si>
+    <t>Tom's Bistro</t>
+  </si>
+  <si>
+    <t>City Hall</t>
+  </si>
+  <si>
+    <t>Waffles</t>
+  </si>
+  <si>
+    <t>JJ's Diner</t>
+  </si>
+  <si>
+    <t>Cones of Dunshire</t>
+  </si>
+  <si>
+    <t>AltaVista</t>
+  </si>
+  <si>
+    <t>Joan Callamezzo</t>
+  </si>
+  <si>
+    <t>Eagleton</t>
+  </si>
+  <si>
+    <t>Duke Silver</t>
+  </si>
+  <si>
+    <t>Saxophone</t>
+  </si>
+  <si>
+    <t>Treat yoself</t>
+  </si>
+  <si>
+    <t>Community</t>
+  </si>
+  <si>
+    <t>Joel McHale</t>
+  </si>
+  <si>
+    <t>Jeff Winger</t>
+  </si>
+  <si>
+    <t>Danny Pudi</t>
+  </si>
+  <si>
+    <t>Abed Nadir</t>
+  </si>
+  <si>
+    <t>Donald Glover</t>
+  </si>
+  <si>
+    <t>Troy Barnes</t>
+  </si>
+  <si>
+    <t>Alison Brie</t>
+  </si>
+  <si>
+    <t>Annie Edison</t>
+  </si>
+  <si>
+    <t>Dan Harmon</t>
+  </si>
+  <si>
+    <t>Gillian Jacbos</t>
+  </si>
+  <si>
+    <t>Britta Perry</t>
+  </si>
+  <si>
+    <t>Chevy Chase</t>
+  </si>
+  <si>
+    <t>Pierce Hawthorne</t>
+  </si>
+  <si>
+    <t>Greendale</t>
+  </si>
+  <si>
+    <t>The Dean</t>
   </si>
 </sst>
 </file>
@@ -742,6 +1404,14 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -1767,6 +2437,71 @@
         <v>158</v>
       </c>
     </row>
+    <row r="43">
+      <c r="A43" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1787,157 +2522,157 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
     </row>
     <row r="32">
@@ -1947,172 +2682,1242 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>223</v>
+        <v>236</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="s">
+        <v>443</v>
       </c>
     </row>
   </sheetData>

--- a/data/gamecorg.xlsx
+++ b/data/gamecorg.xlsx
@@ -6,8 +6,9 @@
     <sheet state="visible" name="Horror Movies" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Lord of the Rings" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="Star Wars" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Stardew Valley" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="NBC Sitcoms" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="Pets" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="Stardew Valley" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="NBC Sitcoms" sheetId="6" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -15,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="655">
   <si>
     <t>Halloween</t>
   </si>
@@ -533,6 +534,9 @@
     <t>Shire</t>
   </si>
   <si>
+    <t>Grond</t>
+  </si>
+  <si>
     <t>Luke Skywalker</t>
   </si>
   <si>
@@ -671,112 +675,748 @@
     <t>Jabba the Hutt</t>
   </si>
   <si>
+    <t>Smuggler</t>
+  </si>
+  <si>
+    <t>Bounty Hunter</t>
+  </si>
+  <si>
+    <t>The Mandalorian</t>
+  </si>
+  <si>
+    <t>Cassian Andor</t>
+  </si>
+  <si>
+    <t>Jyn Erso</t>
+  </si>
+  <si>
+    <t>Saw Gerrera</t>
+  </si>
+  <si>
+    <t>The Phantom Menace</t>
+  </si>
+  <si>
+    <t>Attack of the Clones</t>
+  </si>
+  <si>
+    <t>Revenge of the Sith</t>
+  </si>
+  <si>
+    <t>A New Hope</t>
+  </si>
+  <si>
+    <t>The Empire Strikes Back</t>
+  </si>
+  <si>
+    <t>Return of the Jedi</t>
+  </si>
+  <si>
+    <t>The Force Awakens</t>
+  </si>
+  <si>
+    <t>The Last Jedi</t>
+  </si>
+  <si>
+    <t>The Rise of Skywalker</t>
+  </si>
+  <si>
+    <t>Solo</t>
+  </si>
+  <si>
+    <t>Rogue One</t>
+  </si>
+  <si>
+    <t>Millenium Falcon</t>
+  </si>
+  <si>
+    <t>Stormtrooper</t>
+  </si>
+  <si>
+    <t>Clone Trooper</t>
+  </si>
+  <si>
+    <t>Republic</t>
+  </si>
+  <si>
+    <t>Empire</t>
+  </si>
+  <si>
+    <t>Senate</t>
+  </si>
+  <si>
+    <t>Death Star</t>
+  </si>
+  <si>
+    <t>Star Destroyer</t>
+  </si>
+  <si>
+    <t>Starkiller Base</t>
+  </si>
+  <si>
+    <t>Yavin</t>
+  </si>
+  <si>
+    <t>Endor</t>
+  </si>
+  <si>
+    <t>Cad Bane</t>
+  </si>
+  <si>
+    <t>Captain Phasma</t>
+  </si>
+  <si>
+    <t>Rose Tico</t>
+  </si>
+  <si>
+    <t>Droids</t>
+  </si>
+  <si>
+    <t>Bossk</t>
+  </si>
+  <si>
+    <t>Claudia Gray</t>
+  </si>
+  <si>
+    <t>Mike Chen</t>
+  </si>
+  <si>
+    <t>Disen cozy</t>
+  </si>
+  <si>
+    <t>Bigger fish</t>
+  </si>
+  <si>
+    <t>Pack your bags were leaving</t>
+  </si>
+  <si>
+    <t>Possibly</t>
+  </si>
+  <si>
+    <t>Behold the field in which I grow my fucks</t>
+  </si>
+  <si>
+    <t>Sand People</t>
+  </si>
+  <si>
+    <t>Dominatrix dress</t>
+  </si>
+  <si>
+    <t>Korgee Beast</t>
+  </si>
+  <si>
+    <t>No underwear in space</t>
+  </si>
+  <si>
+    <t>Garbage compactor</t>
+  </si>
+  <si>
+    <t>Life Day</t>
+  </si>
+  <si>
+    <t>Carbonite</t>
+  </si>
+  <si>
+    <t>Blue milk</t>
+  </si>
+  <si>
     <t>Mon Mothma</t>
   </si>
   <si>
-    <t>Smuggler</t>
-  </si>
-  <si>
-    <t>Bounty Hunter</t>
-  </si>
-  <si>
-    <t>The Mandalorian</t>
-  </si>
-  <si>
-    <t>Cassian Andor</t>
-  </si>
-  <si>
-    <t>Jyn Erso</t>
-  </si>
-  <si>
-    <t>Saw Gerrera</t>
-  </si>
-  <si>
-    <t>The Phantom Menace</t>
-  </si>
-  <si>
-    <t>Attack of the Clones</t>
-  </si>
-  <si>
-    <t>Revenge of the Sith</t>
-  </si>
-  <si>
-    <t>A New Hope</t>
-  </si>
-  <si>
-    <t>The Empire Strikes Back</t>
-  </si>
-  <si>
-    <t>Return of the Jedi</t>
-  </si>
-  <si>
-    <t>The Force Awakens</t>
-  </si>
-  <si>
-    <t>The Last Jedi</t>
-  </si>
-  <si>
-    <t>The Rise of Skywalker</t>
-  </si>
-  <si>
-    <t>Solo</t>
-  </si>
-  <si>
-    <t>Rogue One</t>
-  </si>
-  <si>
-    <t>Millenium Falcon</t>
-  </si>
-  <si>
-    <t>Stormtrooper</t>
-  </si>
-  <si>
-    <t>Clone Trooper</t>
-  </si>
-  <si>
-    <t>Republic</t>
-  </si>
-  <si>
-    <t>Empire</t>
-  </si>
-  <si>
-    <t>Senate</t>
-  </si>
-  <si>
-    <t>Death Star</t>
-  </si>
-  <si>
-    <t>Star Destroyer</t>
-  </si>
-  <si>
-    <t>Starkiller Base</t>
-  </si>
-  <si>
-    <t>Yavin</t>
-  </si>
-  <si>
-    <t>Endor</t>
-  </si>
-  <si>
-    <t>Cad Bane</t>
-  </si>
-  <si>
-    <t>Captain Phasma</t>
-  </si>
-  <si>
-    <t>Rose Tico</t>
-  </si>
-  <si>
-    <t>Droids</t>
-  </si>
-  <si>
-    <t>Bossk</t>
-  </si>
-  <si>
-    <t>Claudia Gray</t>
-  </si>
-  <si>
-    <t>Mike Chen</t>
+    <t>Dekkster Jettser</t>
+  </si>
+  <si>
+    <t>I know who can identify this</t>
+  </si>
+  <si>
+    <t>Truly wonderful the mind of a child</t>
+  </si>
+  <si>
+    <t>Sio Bibble</t>
+  </si>
+  <si>
+    <t>Now there are two of them</t>
+  </si>
+  <si>
+    <t>The negotiations were short</t>
+  </si>
+  <si>
+    <t>Not just the men</t>
+  </si>
+  <si>
+    <t>Let the wookie win</t>
+  </si>
+  <si>
+    <t>I have a bad feeling about this</t>
+  </si>
+  <si>
+    <t>I have a good feeling about this</t>
+  </si>
+  <si>
+    <t>Donald Glover</t>
+  </si>
+  <si>
+    <t>What about the droid attack on the wookies?</t>
+  </si>
+  <si>
+    <t>Well I don't approve</t>
+  </si>
+  <si>
+    <t>Now this is podracing!</t>
+  </si>
+  <si>
+    <t>Ki-Adi Mundi</t>
+  </si>
+  <si>
+    <t>Plo Koon</t>
+  </si>
+  <si>
+    <t>Yaddle</t>
+  </si>
+  <si>
+    <t>Kit Fisto</t>
+  </si>
+  <si>
+    <t>Mace Windu</t>
+  </si>
+  <si>
+    <t>Wizard</t>
+  </si>
+  <si>
+    <t>Poodoo</t>
+  </si>
+  <si>
+    <t>Bantha</t>
+  </si>
+  <si>
+    <t>Sarlacc</t>
+  </si>
+  <si>
+    <t>Ben Swolo</t>
+  </si>
+  <si>
+    <t>Jango Fett</t>
+  </si>
+  <si>
+    <t>Stay on target</t>
+  </si>
+  <si>
+    <t>Porkins</t>
+  </si>
+  <si>
+    <t>Geonosis</t>
+  </si>
+  <si>
+    <t>General Grievous</t>
+  </si>
+  <si>
+    <t>Hello there</t>
+  </si>
+  <si>
+    <t>General Kenobi</t>
+  </si>
+  <si>
+    <t>I don't like sand.</t>
+  </si>
+  <si>
+    <t>It's course and rough and irritating</t>
+  </si>
+  <si>
+    <t>Are you an angel?</t>
+  </si>
+  <si>
+    <t>Yippee!</t>
+  </si>
+  <si>
+    <t>Watto</t>
+  </si>
+  <si>
+    <t>Bad bombin'</t>
+  </si>
+  <si>
+    <t>Then you are Lost!</t>
+  </si>
+  <si>
+    <t>Uncle Owen</t>
+  </si>
+  <si>
+    <t>Toschi Station</t>
+  </si>
+  <si>
+    <t>Sandcrawler</t>
+  </si>
+  <si>
+    <t>Jawa Juice</t>
+  </si>
+  <si>
+    <t>Candle Droid</t>
+  </si>
+  <si>
+    <t>Caf</t>
+  </si>
+  <si>
+    <t>For a drink</t>
+  </si>
+  <si>
+    <t>Joph Seastriker</t>
+  </si>
+  <si>
+    <t>Ashoka Tano</t>
+  </si>
+  <si>
+    <t>This is the way</t>
+  </si>
+  <si>
+    <t>Baby Yoda</t>
+  </si>
+  <si>
+    <t>Grogu</t>
+  </si>
+  <si>
+    <t>Your thoughts dwell on your mother</t>
+  </si>
+  <si>
+    <t>Take a sip</t>
+  </si>
+  <si>
+    <t>Take a seat</t>
+  </si>
+  <si>
+    <t>We do not grant you the rank of master</t>
+  </si>
+  <si>
+    <t>Droid Arc</t>
+  </si>
+  <si>
+    <t>Battle Droids</t>
+  </si>
+  <si>
+    <t>No pod is worth two slaves</t>
+  </si>
+  <si>
+    <t>Visible confusion</t>
+  </si>
+  <si>
+    <t>That's why I'm here</t>
+  </si>
+  <si>
+    <t>Rian Johnson</t>
+  </si>
+  <si>
+    <t>Zam Wesell</t>
+  </si>
+  <si>
+    <t>Canto Bight</t>
+  </si>
+  <si>
+    <t>Laura Dern</t>
+  </si>
+  <si>
+    <t>Daisy Ridley</t>
+  </si>
+  <si>
+    <t>Felicity Jones</t>
+  </si>
+  <si>
+    <t>Oscar Isaac</t>
+  </si>
+  <si>
+    <t>John Boyega</t>
+  </si>
+  <si>
+    <t>Adam Driver</t>
+  </si>
+  <si>
+    <t>Kylo Ren</t>
+  </si>
+  <si>
+    <t>Darth Plagueis</t>
+  </si>
+  <si>
+    <t>Supreme Leader Snoke</t>
+  </si>
+  <si>
+    <t>General Hux</t>
+  </si>
+  <si>
+    <t>Domhnall Gleeson</t>
+  </si>
+  <si>
+    <t>Maz Katana</t>
+  </si>
+  <si>
+    <t>Lupita Nyongo</t>
+  </si>
+  <si>
+    <t>Gwendolyn Christie</t>
+  </si>
+  <si>
+    <t>Red Arm</t>
+  </si>
+  <si>
+    <t>Jakku</t>
+  </si>
+  <si>
+    <t>Moisture Farm</t>
+  </si>
+  <si>
+    <t>Aunt Beru</t>
+  </si>
+  <si>
+    <t>Twileks</t>
+  </si>
+  <si>
+    <t>Rodians</t>
+  </si>
+  <si>
+    <t>Togrutas</t>
+  </si>
+  <si>
+    <t>Zabraks</t>
+  </si>
+  <si>
+    <t>Greedo</t>
+  </si>
+  <si>
+    <t>Gonk Droid</t>
+  </si>
+  <si>
+    <t>Bib Fortuna</t>
+  </si>
+  <si>
+    <t>Rancor</t>
+  </si>
+  <si>
+    <t>Max Rebo</t>
+  </si>
+  <si>
+    <t>From a certain point of view</t>
+  </si>
+  <si>
+    <t>From my point of view the jedi are evil</t>
+  </si>
+  <si>
+    <t>The sacred jedi texts!</t>
+  </si>
+  <si>
+    <t>Imperial Shuttle</t>
+  </si>
+  <si>
+    <t>Outer Rim</t>
+  </si>
+  <si>
+    <t>Chandrila</t>
+  </si>
+  <si>
+    <t>Halycon</t>
+  </si>
+  <si>
+    <t>Cato Neimoidia</t>
+  </si>
+  <si>
+    <t>Trade Federation</t>
+  </si>
+  <si>
+    <t>Nute Gunray</t>
+  </si>
+  <si>
+    <t>Corellia</t>
+  </si>
+  <si>
+    <t>Crait</t>
+  </si>
+  <si>
+    <t>Dagobah</t>
+  </si>
+  <si>
+    <t>Tauntaun</t>
+  </si>
+  <si>
+    <t>I thought they smelled bad on the outside</t>
+  </si>
+  <si>
+    <t>Probe Droid</t>
+  </si>
+  <si>
+    <t>Luke</t>
+  </si>
+  <si>
+    <t>Camp Bow Wow</t>
+  </si>
+  <si>
+    <t>Harold</t>
+  </si>
+  <si>
+    <t>Pirate Chef</t>
+  </si>
+  <si>
+    <t>God</t>
+  </si>
+  <si>
+    <t>Earl</t>
+  </si>
+  <si>
+    <t>Security Guard</t>
+  </si>
+  <si>
+    <t>Manage Project</t>
+  </si>
+  <si>
+    <t>Agnes?</t>
+  </si>
+  <si>
+    <t>Gonze</t>
+  </si>
+  <si>
+    <t>Ogram</t>
+  </si>
+  <si>
+    <t>Hamlet</t>
+  </si>
+  <si>
+    <t>Beau</t>
+  </si>
+  <si>
+    <t>Uaeb</t>
+  </si>
+  <si>
+    <t>Eznog's Eggnog</t>
+  </si>
+  <si>
+    <t>Send your little angel home early</t>
+  </si>
+  <si>
+    <t>Doctor Ham</t>
+  </si>
+  <si>
+    <t>Barking is the best medicine</t>
+  </si>
+  <si>
+    <t>Holladay Vet</t>
+  </si>
+  <si>
+    <t>Little bit of Grit</t>
+  </si>
+  <si>
+    <t>Foxy Socky Lady</t>
+  </si>
+  <si>
+    <t>The Ranch</t>
+  </si>
+  <si>
+    <t>Baseball park</t>
+  </si>
+  <si>
+    <t>Zeus</t>
+  </si>
+  <si>
+    <t>Hera</t>
+  </si>
+  <si>
+    <t>Flippy</t>
+  </si>
+  <si>
+    <t>Missionary</t>
+  </si>
+  <si>
+    <t>Abortos</t>
+  </si>
+  <si>
+    <t>Famously large head</t>
+  </si>
+  <si>
+    <t>Stop the spread of hateful libel</t>
+  </si>
+  <si>
+    <t>Have you or a loved one been scammed by this cat?</t>
+  </si>
+  <si>
+    <t>Qui Gonze Gin</t>
+  </si>
+  <si>
+    <t>Beaubi One Kenobi</t>
+  </si>
+  <si>
+    <t>Beauratheon</t>
+  </si>
+  <si>
+    <t>Gonzegoy</t>
+  </si>
+  <si>
+    <t>Margaeraan</t>
+  </si>
+  <si>
+    <t>House Ham!</t>
+  </si>
+  <si>
+    <t>Napoleon the Corgi</t>
+  </si>
+  <si>
+    <t>River</t>
+  </si>
+  <si>
+    <t>El Chapo</t>
+  </si>
+  <si>
+    <t>El Chapo Church</t>
+  </si>
+  <si>
+    <t>Beaukanda</t>
+  </si>
+  <si>
+    <t>Margonia</t>
+  </si>
+  <si>
+    <t>Margonia 2</t>
+  </si>
+  <si>
+    <t>Annex</t>
+  </si>
+  <si>
+    <t>Temptations</t>
+  </si>
+  <si>
+    <t>Wet Food</t>
+  </si>
+  <si>
+    <t>Turkey Farts</t>
+  </si>
+  <si>
+    <t>Chloe</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>Hamilton</t>
+  </si>
+  <si>
+    <t>Lure chase</t>
+  </si>
+  <si>
+    <t>Petsgiving</t>
+  </si>
+  <si>
+    <t>Puppy social</t>
+  </si>
+  <si>
+    <t>Dog college</t>
+  </si>
+  <si>
+    <t>Your little dog</t>
+  </si>
+  <si>
+    <t>Nala</t>
+  </si>
+  <si>
+    <t>Pinecone</t>
+  </si>
+  <si>
+    <t>Dead rabbit</t>
+  </si>
+  <si>
+    <t>Little girls</t>
+  </si>
+  <si>
+    <t>Aymara</t>
+  </si>
+  <si>
+    <t>Chief God Officer</t>
+  </si>
+  <si>
+    <t>Eleven peanut butter</t>
+  </si>
+  <si>
+    <t>Ulysses</t>
+  </si>
+  <si>
+    <t>Twilight</t>
+  </si>
+  <si>
+    <t>Beau's PBS show</t>
+  </si>
+  <si>
+    <t>Mormon</t>
+  </si>
+  <si>
+    <t>Cat dancer</t>
+  </si>
+  <si>
+    <t>Chief export</t>
+  </si>
+  <si>
+    <t>Mining temptations</t>
+  </si>
+  <si>
+    <t>Gonze-vert</t>
+  </si>
+  <si>
+    <t>A little herd</t>
+  </si>
+  <si>
+    <t>Amsterham</t>
+  </si>
+  <si>
+    <t>Alderham</t>
+  </si>
+  <si>
+    <t>Instagamlet</t>
+  </si>
+  <si>
+    <t>Rats</t>
+  </si>
+  <si>
+    <t>Arena de Gatos</t>
+  </si>
+  <si>
+    <t>Bully stick</t>
+  </si>
+  <si>
+    <t>Snuffle pad</t>
+  </si>
+  <si>
+    <t>Vroom</t>
+  </si>
+  <si>
+    <t>Pet couch</t>
+  </si>
+  <si>
+    <t>Flags</t>
+  </si>
+  <si>
+    <t>Woofs</t>
+  </si>
+  <si>
+    <t>Ho-tail</t>
+  </si>
+  <si>
+    <t>We will buy our own tickets</t>
+  </si>
+  <si>
+    <t>Sometimes he barks back!</t>
+  </si>
+  <si>
+    <t>Best Pet Mom</t>
+  </si>
+  <si>
+    <t>Fur the programming language</t>
+  </si>
+  <si>
+    <t>Santa Paws</t>
+  </si>
+  <si>
+    <t>Blood and Fur</t>
+  </si>
+  <si>
+    <t>Eznog’s Eggnog</t>
+  </si>
+  <si>
+    <t>Bird videos</t>
+  </si>
+  <si>
+    <t>Cat portrait</t>
+  </si>
+  <si>
+    <t>Psychic</t>
   </si>
   <si>
     <t>Alex</t>
@@ -875,9 +1515,6 @@
     <t>Vincent</t>
   </si>
   <si>
-    <t>Wizard</t>
-  </si>
-  <si>
     <t>Birdie</t>
   </si>
   <si>
@@ -1314,9 +1951,6 @@
   </si>
   <si>
     <t>Abed Nadir</t>
-  </si>
-  <si>
-    <t>Donald Glover</t>
   </si>
   <si>
     <t>Troy Barnes</t>
@@ -1412,6 +2046,10 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -2502,6 +3140,11 @@
         <v>171</v>
       </c>
     </row>
+    <row r="56">
+      <c r="A56" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2517,162 +3160,162 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="14.25"/>
+    <col customWidth="1" min="1" max="1" width="33.88"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="32">
@@ -2682,257 +3325,847 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="s">
+        <v>372</v>
       </c>
     </row>
   </sheetData>
@@ -2952,307 +4185,507 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>254</v>
+        <v>373</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>255</v>
+        <v>374</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>256</v>
+        <v>375</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>257</v>
+        <v>376</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>258</v>
+        <v>377</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>259</v>
+        <v>378</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>260</v>
+        <v>379</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>261</v>
+        <v>380</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>262</v>
+        <v>381</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>263</v>
+        <v>382</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>264</v>
+        <v>383</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>265</v>
+        <v>384</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>266</v>
+        <v>385</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>267</v>
+        <v>386</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>268</v>
+        <v>387</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>269</v>
+        <v>388</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>270</v>
+        <v>389</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>271</v>
+        <v>390</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>272</v>
+        <v>391</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>273</v>
+        <v>392</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>274</v>
+        <v>393</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>275</v>
+        <v>394</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>276</v>
+        <v>395</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>277</v>
+        <v>396</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>278</v>
+        <v>397</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>279</v>
+        <v>398</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>280</v>
+        <v>399</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>281</v>
+        <v>400</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>282</v>
+        <v>401</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>283</v>
+        <v>402</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>284</v>
+        <v>403</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>285</v>
+        <v>404</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>286</v>
+        <v>405</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>287</v>
+        <v>406</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>288</v>
+        <v>407</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>289</v>
+        <v>408</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>290</v>
+        <v>409</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>291</v>
+        <v>410</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>292</v>
+        <v>411</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>293</v>
+        <v>412</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>294</v>
+        <v>413</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>295</v>
+        <v>414</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>296</v>
+        <v>415</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>297</v>
+        <v>416</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>298</v>
+        <v>417</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>299</v>
+        <v>418</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>300</v>
+        <v>419</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>301</v>
+        <v>420</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>302</v>
+        <v>421</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>303</v>
+        <v>422</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>304</v>
+        <v>423</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>305</v>
+        <v>424</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>306</v>
+        <v>425</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>307</v>
+        <v>426</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>308</v>
+        <v>427</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>309</v>
+        <v>428</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>310</v>
+        <v>429</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>311</v>
+        <v>430</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>312</v>
+        <v>431</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>313</v>
+        <v>432</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>314</v>
+        <v>433</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="s">
+        <v>466</v>
       </c>
     </row>
   </sheetData>
@@ -3272,652 +4705,972 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>315</v>
+        <v>467</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>316</v>
+        <v>468</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>317</v>
+        <v>469</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>318</v>
+        <v>470</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>319</v>
+        <v>471</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>320</v>
+        <v>472</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>321</v>
+        <v>473</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>322</v>
+        <v>474</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>323</v>
+        <v>475</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>325</v>
+        <v>477</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>326</v>
+        <v>478</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>327</v>
+        <v>479</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>328</v>
+        <v>480</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>329</v>
+        <v>481</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>330</v>
+        <v>482</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>331</v>
+        <v>483</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>332</v>
+        <v>484</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>333</v>
+        <v>485</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>334</v>
+        <v>486</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>335</v>
+        <v>487</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>291</v>
+        <v>488</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>336</v>
+        <v>489</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>337</v>
+        <v>490</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>338</v>
+        <v>491</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>339</v>
+        <v>492</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>340</v>
+        <v>493</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>341</v>
+        <v>494</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>342</v>
+        <v>495</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>343</v>
+        <v>496</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>344</v>
+        <v>497</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>345</v>
+        <v>498</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>346</v>
+        <v>287</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>347</v>
+        <v>499</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>348</v>
+        <v>500</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>349</v>
+        <v>501</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>350</v>
+        <v>502</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>351</v>
+        <v>503</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>352</v>
+        <v>504</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>353</v>
+        <v>505</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>354</v>
+        <v>506</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>355</v>
+        <v>507</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>356</v>
+        <v>508</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>357</v>
+        <v>509</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>358</v>
+        <v>510</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>359</v>
+        <v>511</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>360</v>
+        <v>512</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>361</v>
+        <v>513</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>362</v>
+        <v>514</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>363</v>
+        <v>515</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>364</v>
+        <v>516</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>365</v>
+        <v>517</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>366</v>
+        <v>518</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>367</v>
+        <v>519</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>368</v>
+        <v>520</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>369</v>
+        <v>521</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>370</v>
+        <v>522</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>371</v>
+        <v>523</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>372</v>
+        <v>524</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>373</v>
+        <v>525</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>374</v>
+        <v>526</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>375</v>
+        <v>587</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>376</v>
+        <v>588</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>377</v>
+        <v>589</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>378</v>
+        <v>590</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>379</v>
+        <v>591</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>380</v>
+        <v>592</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>381</v>
+        <v>593</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>382</v>
+        <v>594</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>383</v>
+        <v>595</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>384</v>
+        <v>596</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>385</v>
+        <v>597</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>386</v>
+        <v>598</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>387</v>
+        <v>599</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>388</v>
+        <v>600</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>389</v>
+        <v>601</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>390</v>
+        <v>602</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>391</v>
+        <v>603</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>392</v>
+        <v>604</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>393</v>
+        <v>605</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>394</v>
+        <v>606</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>395</v>
+        <v>607</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>396</v>
+        <v>608</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>397</v>
+        <v>609</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>398</v>
+        <v>610</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>399</v>
+        <v>611</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>400</v>
+        <v>612</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>401</v>
+        <v>613</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>402</v>
+        <v>614</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>403</v>
+        <v>615</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>404</v>
+        <v>616</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>405</v>
+        <v>617</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>406</v>
+        <v>618</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>407</v>
+        <v>619</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>408</v>
+        <v>620</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>409</v>
+        <v>621</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>410</v>
+        <v>622</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>411</v>
+        <v>623</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
-        <v>412</v>
+        <v>624</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
-        <v>413</v>
+        <v>625</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
-        <v>414</v>
+        <v>626</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>415</v>
+        <v>627</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
-        <v>416</v>
+        <v>628</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="s">
-        <v>417</v>
+        <v>629</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="s">
-        <v>418</v>
+        <v>630</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="s">
-        <v>419</v>
+        <v>631</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="s">
-        <v>420</v>
+        <v>632</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="s">
-        <v>421</v>
+        <v>633</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="s">
-        <v>422</v>
+        <v>634</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="s">
-        <v>423</v>
+        <v>635</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="s">
-        <v>424</v>
+        <v>636</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="s">
-        <v>425</v>
+        <v>637</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="s">
-        <v>426</v>
+        <v>638</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="s">
-        <v>427</v>
+        <v>639</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="s">
-        <v>428</v>
+        <v>640</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="s">
-        <v>429</v>
+        <v>641</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="s">
-        <v>430</v>
+        <v>642</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="s">
-        <v>431</v>
+        <v>643</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="s">
-        <v>432</v>
+        <v>644</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="s">
-        <v>433</v>
+        <v>278</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="s">
-        <v>434</v>
+        <v>645</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="s">
-        <v>435</v>
+        <v>646</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="s">
-        <v>436</v>
+        <v>647</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="s">
-        <v>437</v>
+        <v>648</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="s">
-        <v>438</v>
+        <v>649</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="s">
-        <v>439</v>
+        <v>650</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="s">
-        <v>440</v>
+        <v>651</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="s">
-        <v>441</v>
+        <v>652</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="s">
-        <v>442</v>
+        <v>653</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="s">
-        <v>443</v>
+        <v>654</v>
       </c>
     </row>
   </sheetData>

--- a/data/gamecorg.xlsx
+++ b/data/gamecorg.xlsx
@@ -246,7 +246,7 @@
     <t>Patsy Tacos</t>
   </si>
   <si>
-    <t>Tom's Baked Beans</t>
+    <t>Toms Baked Beans</t>
   </si>
   <si>
     <t>Rae</t>
@@ -258,7 +258,7 @@
     <t>Luminaria</t>
   </si>
   <si>
-    <t>Haley's David</t>
+    <t>Haleys David</t>
   </si>
   <si>
     <t>Cameron</t>
@@ -279,7 +279,7 @@
     <t>Safeway</t>
   </si>
   <si>
-    <t>Sun's Teriyaki</t>
+    <t>Suns Teriyaki</t>
   </si>
   <si>
     <t>Seahawks</t>
@@ -309,7 +309,7 @@
     <t>BYU</t>
   </si>
   <si>
-    <t>BYU-Idaho</t>
+    <t>BYU Idaho</t>
   </si>
   <si>
     <t>Southern Utah University</t>
@@ -336,7 +336,7 @@
     <t>University of New Mexico</t>
   </si>
   <si>
-    <t>Everybody's a Lobo</t>
+    <t>Everybodys a Lobo</t>
   </si>
   <si>
     <t>Do you want it or not?</t>
@@ -411,7 +411,7 @@
     <t>Janice Lunt</t>
   </si>
   <si>
-    <t>Megan's Megans</t>
+    <t>Megans Megans</t>
   </si>
   <si>
     <t>Shon Lunt</t>
@@ -420,7 +420,7 @@
     <t>Chantel Bills</t>
   </si>
   <si>
-    <t>Dad's friend Mike</t>
+    <t>Dads friend Mike</t>
   </si>
   <si>
     <t>Mitch Smith</t>
@@ -645,7 +645,7 @@
     <t>Saw</t>
   </si>
   <si>
-    <t>Trick 'r Treat</t>
+    <t>Trick r Treat</t>
   </si>
   <si>
     <t>American Psycho</t>
@@ -726,7 +726,7 @@
     <t>Sleepaway Camp</t>
   </si>
   <si>
-    <t>Child's Play</t>
+    <t>Childs Play</t>
   </si>
   <si>
     <t>Chucky</t>
@@ -741,7 +741,7 @@
     <t>Ready or Not</t>
   </si>
   <si>
-    <t>You're Next</t>
+    <t>Youre Next</t>
   </si>
   <si>
     <t>The Witch</t>
@@ -834,7 +834,7 @@
     <t>Misery</t>
   </si>
   <si>
-    <t>Jennifer's Body</t>
+    <t>Jennifers Body</t>
   </si>
   <si>
     <t>The Fly</t>
@@ -1353,7 +1353,7 @@
     <t>What about the droid attack on the wookies?</t>
   </si>
   <si>
-    <t>Well I don't approve</t>
+    <t>Well I dont approve</t>
   </si>
   <si>
     <t>Now this is podracing!</t>
@@ -1410,10 +1410,10 @@
     <t>General Kenobi</t>
   </si>
   <si>
-    <t>I don't like sand.</t>
-  </si>
-  <si>
-    <t>It's course and rough and irritating</t>
+    <t>I dont like sand.</t>
+  </si>
+  <si>
+    <t>Its course and rough and irritating</t>
   </si>
   <si>
     <t>Are you an angel?</t>
@@ -1425,7 +1425,7 @@
     <t>Watto</t>
   </si>
   <si>
-    <t>Bad bombin'</t>
+    <t>Bad bombin</t>
   </si>
   <si>
     <t>Then you are Lost!</t>
@@ -1491,7 +1491,7 @@
     <t>Visible confusion</t>
   </si>
   <si>
-    <t>That's why I'm here</t>
+    <t>Thats why Im here</t>
   </si>
   <si>
     <t>Rian Johnson</t>
@@ -1632,7 +1632,7 @@
     <t>Probe Droid</t>
   </si>
   <si>
-    <t>It's an older code sir, but it checks out</t>
+    <t>Its an older code sir, but it checks out</t>
   </si>
   <si>
     <t>Luke</t>
@@ -1671,7 +1671,7 @@
     <t>Uaeb</t>
   </si>
   <si>
-    <t>Eznog's Eggnog</t>
+    <t>Eznogs Eggnog</t>
   </si>
   <si>
     <t>Send your little angel home early</t>
@@ -1821,7 +1821,7 @@
     <t>Ulysses</t>
   </si>
   <si>
-    <t>Beau's PBS show</t>
+    <t>Beaus PBS show</t>
   </si>
   <si>
     <t>Mormon</t>
@@ -2055,7 +2055,7 @@
     <t>Pepper Poppers</t>
   </si>
   <si>
-    <t>Miner's Treat</t>
+    <t>Miners Treat</t>
   </si>
   <si>
     <t>Triple Shot Espresso</t>
@@ -2376,7 +2376,7 @@
     <t>Tammy Swanson</t>
   </si>
   <si>
-    <t>Lil' Sebastian</t>
+    <t>Lil Sebastian</t>
   </si>
   <si>
     <t>Burt Macklin</t>
@@ -2388,7 +2388,7 @@
     <t>Calzones</t>
   </si>
   <si>
-    <t>Tom's Bistro</t>
+    <t>Toms Bistro</t>
   </si>
   <si>
     <t>City Hall</t>
@@ -2397,7 +2397,7 @@
     <t>Waffles</t>
   </si>
   <si>
-    <t>JJ's Diner</t>
+    <t>JJs Diner</t>
   </si>
   <si>
     <t>Cones of Dunshire</t>
@@ -2550,7 +2550,7 @@
     <t>Frozen Banana Stand</t>
   </si>
   <si>
-    <t>There's always money in the banana stand</t>
+    <t>Theres always money in the banana stand</t>
   </si>
   <si>
     <t>I love Marta</t>
@@ -2589,7 +2589,7 @@
     <t>Gene Parmesan</t>
   </si>
   <si>
-    <t>He's going to be all right</t>
+    <t>Hes going to be all right</t>
   </si>
   <si>
     <t>Loose seal</t>
@@ -2598,7 +2598,7 @@
     <t>Don Quixote</t>
   </si>
   <si>
-    <t>Alice's Adventures in Wonderland</t>
+    <t>Alices Adventures in Wonderland</t>
   </si>
   <si>
     <t>The Adventures of Huckleberry Finn</t>
@@ -2625,10 +2625,10 @@
     <t>The Scarlet Letter</t>
   </si>
   <si>
-    <t>Gulliver's Travels</t>
-  </si>
-  <si>
-    <t>The Pilgrim's Progress</t>
+    <t>Gullivers Travels</t>
+  </si>
+  <si>
+    <t>The Pilgrims Progress</t>
   </si>
   <si>
     <t>A Christmas Carol</t>
@@ -2655,7 +2655,7 @@
     <t>Oliver Twist</t>
   </si>
   <si>
-    <t>Uncle Tom's Cabin</t>
+    <t>Uncle Toms Cabin</t>
   </si>
   <si>
     <t>Crime and Punishment</t>
@@ -2721,10 +2721,10 @@
     <t>The Last of the Mohicans</t>
   </si>
   <si>
-    <t>Tess of the d'Urbervilles</t>
-  </si>
-  <si>
-    <t>Harry Potter and the Sorcerer's Stone</t>
+    <t>Tess of the dUrbervilles</t>
+  </si>
+  <si>
+    <t>Harry Potter and the Sorcerers Stone</t>
   </si>
   <si>
     <t>Heidi</t>
@@ -2796,7 +2796,7 @@
     <t>The Trial</t>
   </si>
   <si>
-    <t>Lady Chatterley's Lover</t>
+    <t>Lady Chatterleys Lover</t>
   </si>
   <si>
     <t>Kidnapped: The Adventures of David Balfour</t>
@@ -2829,7 +2829,7 @@
     <t>The Vicar of Wakefield</t>
   </si>
   <si>
-    <t>A Connecticut Yankee in King Arthur's Court</t>
+    <t>A Connecticut Yankee in King Arthurs Court</t>
   </si>
   <si>
     <t>White Fang</t>
@@ -2877,7 +2877,7 @@
     <t>Sons and Lovers</t>
   </si>
   <si>
-    <t>Charlotte's Web</t>
+    <t>Charlottes Web</t>
   </si>
   <si>
     <t>The Swiss Family Robinson</t>
@@ -2958,7 +2958,7 @@
     <t>To the Lighthouse</t>
   </si>
   <si>
-    <t>The Magician's Nephew</t>
+    <t>The Magicians Nephew</t>
   </si>
   <si>
     <t>Harry Potter and the Order of the Phoenix</t>
@@ -3024,7 +3024,7 @@
     <t>The Kite Runner</t>
   </si>
   <si>
-    <t>One Flew Over the Cuckoo's Nest</t>
+    <t>One Flew Over the Cuckoos Nest</t>
   </si>
   <si>
     <t>The Portrait of a Lady</t>
@@ -3081,7 +3081,7 @@
     <t>O Pioneers!</t>
   </si>
   <si>
-    <t>The Handmaid's Tale</t>
+    <t>The Handmaids Tale</t>
   </si>
   <si>
     <t>The Moonstone</t>
@@ -3267,7 +3267,7 @@
     <t>The Red Pony</t>
   </si>
   <si>
-    <t>All the King's Men</t>
+    <t>All the Kings Men</t>
   </si>
   <si>
     <t>Things Fall Apart</t>
@@ -3366,7 +3366,7 @@
     <t>Sounder</t>
   </si>
   <si>
-    <t>Are You There God? It's Me, Margaret</t>
+    <t>Are You There God? Its Me, Margaret</t>
   </si>
   <si>
     <t>The Notebook</t>
@@ -3387,10 +3387,10 @@
     <t>The Firm</t>
   </si>
   <si>
-    <t>Swann's Way</t>
-  </si>
-  <si>
-    <t>Ender's Game</t>
+    <t>Swanns Way</t>
+  </si>
+  <si>
+    <t>Enders Game</t>
   </si>
   <si>
     <t>The Name of the Rose</t>
@@ -3408,7 +3408,7 @@
     <t>Eragon</t>
   </si>
   <si>
-    <t>The Hitchhiker's Guide to the Galaxy</t>
+    <t>The Hitchhikers Guide to the Galaxy</t>
   </si>
   <si>
     <t>Buddenbrooks</t>
@@ -3438,7 +3438,7 @@
     <t>Where the Red Fern Grows</t>
   </si>
   <si>
-    <t>Le Morte D'Arthur</t>
+    <t>Le Morte DArthur</t>
   </si>
   <si>
     <t>Mockingjay</t>
@@ -3573,7 +3573,7 @@
     <t>The Tale of Despereaux</t>
   </si>
   <si>
-    <t>The Girl Who Kicked the Hornet's Nest</t>
+    <t>The Girl Who Kicked the Hornets Nest</t>
   </si>
   <si>
     <t>Dear Mr. Henshaw</t>
@@ -3597,7 +3597,7 @@
     <t>P Is for Peril</t>
   </si>
   <si>
-    <t>My Sister's Keeper</t>
+    <t>My Sisters Keeper</t>
   </si>
   <si>
     <t>Barnaby Rudge</t>
@@ -3696,7 +3696,7 @@
     <t>Inferno</t>
   </si>
   <si>
-    <t>Schindler's List</t>
+    <t>Schindlers List</t>
   </si>
   <si>
     <t>Jonathan Livingston Seagull</t>
@@ -3738,7 +3738,7 @@
     <t>Encyclopedia Brown: Boy Detective</t>
   </si>
   <si>
-    <t>The Time Traveler's Wife</t>
+    <t>The Time Travelers Wife</t>
   </si>
   <si>
     <t>The Incredible Journey</t>
@@ -3813,7 +3813,7 @@
     <t>Diary of a Wimpy Kid: The Last Straw</t>
   </si>
   <si>
-    <t>King Solomon's Mines</t>
+    <t>King Solomons Mines</t>
   </si>
   <si>
     <t>The Princess of Cleves</t>
@@ -3900,7 +3900,7 @@
     <t>The Fall</t>
   </si>
   <si>
-    <t>The No. 1 Ladies' Detective Agency</t>
+    <t>The No. 1 Ladies Detective Agency</t>
   </si>
   <si>
     <t>Worst Case</t>
@@ -3933,22 +3933,22 @@
     <t>Walk Two Moons</t>
   </si>
   <si>
-    <t>Miss Peregrine's Home for Peculiar Children</t>
+    <t>Miss Peregrines Home for Peculiar Children</t>
   </si>
   <si>
     <t>The Chocolate War</t>
   </si>
   <si>
-    <t>Sophie's Choice</t>
+    <t>Sophies Choice</t>
   </si>
   <si>
     <t>Looking for Alaska</t>
   </si>
   <si>
-    <t>Breakfast at Tiffany's</t>
-  </si>
-  <si>
-    <t>The Razor's Edge</t>
+    <t>Breakfast at Tiffanys</t>
+  </si>
+  <si>
+    <t>The Razors Edge</t>
   </si>
   <si>
     <t>Dreamcatcher</t>
@@ -3978,7 +3978,7 @@
     <t>Diary of a Wimpy Kid</t>
   </si>
   <si>
-    <t>The Memory Keeper's Daughter</t>
+    <t>The Memory Keepers Daughter</t>
   </si>
   <si>
     <t>The Wedding</t>
@@ -3999,7 +3999,7 @@
     <t>The Death of Ivan Ilych</t>
   </si>
   <si>
-    <t>Alex Cross's Trial</t>
+    <t>Alex Crosss Trial</t>
   </si>
   <si>
     <t>Kenilworth</t>
@@ -4029,7 +4029,7 @@
     <t>Swimsuit</t>
   </si>
   <si>
-    <t>Cat's Cradle</t>
+    <t>Cats Cradle</t>
   </si>
   <si>
     <t>The Caine Mutiny</t>
@@ -4302,7 +4302,7 @@
     <t>George Eliot</t>
   </si>
   <si>
-    <t>Madeleine L'Engle</t>
+    <t>Madeleine LEngle</t>
   </si>
   <si>
     <t>H.G. Wells</t>
@@ -4797,7 +4797,7 @@
     <t>Madame de (Marie-Madeleine Pioche de La Vergne) La Fayett</t>
   </si>
   <si>
-    <t>Robert C. O'Brien</t>
+    <t>Robert C. OBrien</t>
   </si>
   <si>
     <t>John Irving</t>
@@ -4854,7 +4854,7 @@
     <t>William Styron</t>
   </si>
   <si>
-    <t>Tim O'Brien</t>
+    <t>Tim OBrien</t>
   </si>
   <si>
     <t>Edwin A. Abbott</t>
@@ -4980,7 +4980,7 @@
     <t>Southpark</t>
   </si>
   <si>
-    <t>It's Always Sunny in Philadelphia</t>
+    <t>Its Always Sunny in Philadelphia</t>
   </si>
   <si>
     <t>Deadwood</t>
@@ -5097,7 +5097,7 @@
     <t>Once Upon a Time</t>
   </si>
   <si>
-    <t>Grey's Anatomy</t>
+    <t>Greys Anatomy</t>
   </si>
   <si>
     <t>Hannibal</t>
@@ -5295,7 +5295,7 @@
     <t>Yellowstone</t>
   </si>
   <si>
-    <t>Handmaid's Tale</t>
+    <t>Handmaids Tale</t>
   </si>
   <si>
     <t>American Gods</t>

--- a/data/gamecorg.xlsx
+++ b/data/gamecorg.xlsx
@@ -246,7 +246,7 @@
     <t>Patsy Tacos</t>
   </si>
   <si>
-    <t>Toms Baked Beans</t>
+    <t>Tom's Baked Beans</t>
   </si>
   <si>
     <t>Rae</t>
@@ -258,7 +258,7 @@
     <t>Luminaria</t>
   </si>
   <si>
-    <t>Haleys David</t>
+    <t>Haley's David</t>
   </si>
   <si>
     <t>Cameron</t>
@@ -279,7 +279,7 @@
     <t>Safeway</t>
   </si>
   <si>
-    <t>Suns Teriyaki</t>
+    <t>Sun's Teriyaki</t>
   </si>
   <si>
     <t>Seahawks</t>
@@ -309,7 +309,7 @@
     <t>BYU</t>
   </si>
   <si>
-    <t>BYU Idaho</t>
+    <t>BYU-Idaho</t>
   </si>
   <si>
     <t>Southern Utah University</t>
@@ -336,7 +336,7 @@
     <t>University of New Mexico</t>
   </si>
   <si>
-    <t>Everybodys a Lobo</t>
+    <t>Everybody's a Lobo</t>
   </si>
   <si>
     <t>Do you want it or not?</t>
@@ -411,7 +411,7 @@
     <t>Janice Lunt</t>
   </si>
   <si>
-    <t>Megans Megans</t>
+    <t>Megan's Megans</t>
   </si>
   <si>
     <t>Shon Lunt</t>
@@ -420,7 +420,7 @@
     <t>Chantel Bills</t>
   </si>
   <si>
-    <t>Dads friend Mike</t>
+    <t>Dad's friend Mike</t>
   </si>
   <si>
     <t>Mitch Smith</t>
@@ -645,7 +645,7 @@
     <t>Saw</t>
   </si>
   <si>
-    <t>Trick r Treat</t>
+    <t>Trick 'r Treat</t>
   </si>
   <si>
     <t>American Psycho</t>
@@ -726,7 +726,7 @@
     <t>Sleepaway Camp</t>
   </si>
   <si>
-    <t>Childs Play</t>
+    <t>Child's Play</t>
   </si>
   <si>
     <t>Chucky</t>
@@ -741,7 +741,7 @@
     <t>Ready or Not</t>
   </si>
   <si>
-    <t>Youre Next</t>
+    <t>You're Next</t>
   </si>
   <si>
     <t>The Witch</t>
@@ -834,7 +834,7 @@
     <t>Misery</t>
   </si>
   <si>
-    <t>Jennifers Body</t>
+    <t>Jennifer's Body</t>
   </si>
   <si>
     <t>The Fly</t>
@@ -1353,7 +1353,7 @@
     <t>What about the droid attack on the wookies?</t>
   </si>
   <si>
-    <t>Well I dont approve</t>
+    <t>Well I don't approve</t>
   </si>
   <si>
     <t>Now this is podracing!</t>
@@ -1410,10 +1410,10 @@
     <t>General Kenobi</t>
   </si>
   <si>
-    <t>I dont like sand.</t>
-  </si>
-  <si>
-    <t>Its course and rough and irritating</t>
+    <t>I don't like sand.</t>
+  </si>
+  <si>
+    <t>It's course and rough and irritating</t>
   </si>
   <si>
     <t>Are you an angel?</t>
@@ -1425,7 +1425,7 @@
     <t>Watto</t>
   </si>
   <si>
-    <t>Bad bombin</t>
+    <t>Bad bombin'</t>
   </si>
   <si>
     <t>Then you are Lost!</t>
@@ -1491,7 +1491,7 @@
     <t>Visible confusion</t>
   </si>
   <si>
-    <t>Thats why Im here</t>
+    <t>That's why I'm here</t>
   </si>
   <si>
     <t>Rian Johnson</t>
@@ -1632,7 +1632,7 @@
     <t>Probe Droid</t>
   </si>
   <si>
-    <t>Its an older code sir, but it checks out</t>
+    <t>It's an older code sir, but it checks out</t>
   </si>
   <si>
     <t>Luke</t>
@@ -1671,7 +1671,7 @@
     <t>Uaeb</t>
   </si>
   <si>
-    <t>Eznogs Eggnog</t>
+    <t>Eznog's Eggnog</t>
   </si>
   <si>
     <t>Send your little angel home early</t>
@@ -1821,7 +1821,7 @@
     <t>Ulysses</t>
   </si>
   <si>
-    <t>Beaus PBS show</t>
+    <t>Beau's PBS show</t>
   </si>
   <si>
     <t>Mormon</t>
@@ -2055,7 +2055,7 @@
     <t>Pepper Poppers</t>
   </si>
   <si>
-    <t>Miners Treat</t>
+    <t>Miner's Treat</t>
   </si>
   <si>
     <t>Triple Shot Espresso</t>
@@ -2376,7 +2376,7 @@
     <t>Tammy Swanson</t>
   </si>
   <si>
-    <t>Lil Sebastian</t>
+    <t>Lil' Sebastian</t>
   </si>
   <si>
     <t>Burt Macklin</t>
@@ -2388,7 +2388,7 @@
     <t>Calzones</t>
   </si>
   <si>
-    <t>Toms Bistro</t>
+    <t>Tom's Bistro</t>
   </si>
   <si>
     <t>City Hall</t>
@@ -2397,7 +2397,7 @@
     <t>Waffles</t>
   </si>
   <si>
-    <t>JJs Diner</t>
+    <t>JJ's Diner</t>
   </si>
   <si>
     <t>Cones of Dunshire</t>
@@ -2550,7 +2550,7 @@
     <t>Frozen Banana Stand</t>
   </si>
   <si>
-    <t>Theres always money in the banana stand</t>
+    <t>There's always money in the banana stand</t>
   </si>
   <si>
     <t>I love Marta</t>
@@ -2589,7 +2589,7 @@
     <t>Gene Parmesan</t>
   </si>
   <si>
-    <t>Hes going to be all right</t>
+    <t>He's going to be all right</t>
   </si>
   <si>
     <t>Loose seal</t>
@@ -2598,7 +2598,7 @@
     <t>Don Quixote</t>
   </si>
   <si>
-    <t>Alices Adventures in Wonderland</t>
+    <t>Alice's Adventures in Wonderland</t>
   </si>
   <si>
     <t>The Adventures of Huckleberry Finn</t>
@@ -2625,10 +2625,10 @@
     <t>The Scarlet Letter</t>
   </si>
   <si>
-    <t>Gullivers Travels</t>
-  </si>
-  <si>
-    <t>The Pilgrims Progress</t>
+    <t>Gulliver's Travels</t>
+  </si>
+  <si>
+    <t>The Pilgrim's Progress</t>
   </si>
   <si>
     <t>A Christmas Carol</t>
@@ -2655,7 +2655,7 @@
     <t>Oliver Twist</t>
   </si>
   <si>
-    <t>Uncle Toms Cabin</t>
+    <t>Uncle Tom's Cabin</t>
   </si>
   <si>
     <t>Crime and Punishment</t>
@@ -2721,10 +2721,10 @@
     <t>The Last of the Mohicans</t>
   </si>
   <si>
-    <t>Tess of the dUrbervilles</t>
-  </si>
-  <si>
-    <t>Harry Potter and the Sorcerers Stone</t>
+    <t>Tess of the d'Urbervilles</t>
+  </si>
+  <si>
+    <t>Harry Potter and the Sorcerer's Stone</t>
   </si>
   <si>
     <t>Heidi</t>
@@ -2796,7 +2796,7 @@
     <t>The Trial</t>
   </si>
   <si>
-    <t>Lady Chatterleys Lover</t>
+    <t>Lady Chatterley's Lover</t>
   </si>
   <si>
     <t>Kidnapped: The Adventures of David Balfour</t>
@@ -2829,7 +2829,7 @@
     <t>The Vicar of Wakefield</t>
   </si>
   <si>
-    <t>A Connecticut Yankee in King Arthurs Court</t>
+    <t>A Connecticut Yankee in King Arthur's Court</t>
   </si>
   <si>
     <t>White Fang</t>
@@ -2877,7 +2877,7 @@
     <t>Sons and Lovers</t>
   </si>
   <si>
-    <t>Charlottes Web</t>
+    <t>Charlotte's Web</t>
   </si>
   <si>
     <t>The Swiss Family Robinson</t>
@@ -2958,7 +2958,7 @@
     <t>To the Lighthouse</t>
   </si>
   <si>
-    <t>The Magicians Nephew</t>
+    <t>The Magician's Nephew</t>
   </si>
   <si>
     <t>Harry Potter and the Order of the Phoenix</t>
@@ -3024,7 +3024,7 @@
     <t>The Kite Runner</t>
   </si>
   <si>
-    <t>One Flew Over the Cuckoos Nest</t>
+    <t>One Flew Over the Cuckoo's Nest</t>
   </si>
   <si>
     <t>The Portrait of a Lady</t>
@@ -3081,7 +3081,7 @@
     <t>O Pioneers!</t>
   </si>
   <si>
-    <t>The Handmaids Tale</t>
+    <t>The Handmaid's Tale</t>
   </si>
   <si>
     <t>The Moonstone</t>
@@ -3267,7 +3267,7 @@
     <t>The Red Pony</t>
   </si>
   <si>
-    <t>All the Kings Men</t>
+    <t>All the King's Men</t>
   </si>
   <si>
     <t>Things Fall Apart</t>
@@ -3366,7 +3366,7 @@
     <t>Sounder</t>
   </si>
   <si>
-    <t>Are You There God? Its Me, Margaret</t>
+    <t>Are You There God? It's Me, Margaret</t>
   </si>
   <si>
     <t>The Notebook</t>
@@ -3387,10 +3387,10 @@
     <t>The Firm</t>
   </si>
   <si>
-    <t>Swanns Way</t>
-  </si>
-  <si>
-    <t>Enders Game</t>
+    <t>Swann's Way</t>
+  </si>
+  <si>
+    <t>Ender's Game</t>
   </si>
   <si>
     <t>The Name of the Rose</t>
@@ -3408,7 +3408,7 @@
     <t>Eragon</t>
   </si>
   <si>
-    <t>The Hitchhikers Guide to the Galaxy</t>
+    <t>The Hitchhiker's Guide to the Galaxy</t>
   </si>
   <si>
     <t>Buddenbrooks</t>
@@ -3438,7 +3438,7 @@
     <t>Where the Red Fern Grows</t>
   </si>
   <si>
-    <t>Le Morte DArthur</t>
+    <t>Le Morte D'Arthur</t>
   </si>
   <si>
     <t>Mockingjay</t>
@@ -3573,7 +3573,7 @@
     <t>The Tale of Despereaux</t>
   </si>
   <si>
-    <t>The Girl Who Kicked the Hornets Nest</t>
+    <t>The Girl Who Kicked the Hornet's Nest</t>
   </si>
   <si>
     <t>Dear Mr. Henshaw</t>
@@ -3597,7 +3597,7 @@
     <t>P Is for Peril</t>
   </si>
   <si>
-    <t>My Sisters Keeper</t>
+    <t>My Sister's Keeper</t>
   </si>
   <si>
     <t>Barnaby Rudge</t>
@@ -3696,7 +3696,7 @@
     <t>Inferno</t>
   </si>
   <si>
-    <t>Schindlers List</t>
+    <t>Schindler's List</t>
   </si>
   <si>
     <t>Jonathan Livingston Seagull</t>
@@ -3738,7 +3738,7 @@
     <t>Encyclopedia Brown: Boy Detective</t>
   </si>
   <si>
-    <t>The Time Travelers Wife</t>
+    <t>The Time Traveler's Wife</t>
   </si>
   <si>
     <t>The Incredible Journey</t>
@@ -3813,7 +3813,7 @@
     <t>Diary of a Wimpy Kid: The Last Straw</t>
   </si>
   <si>
-    <t>King Solomons Mines</t>
+    <t>King Solomon's Mines</t>
   </si>
   <si>
     <t>The Princess of Cleves</t>
@@ -3900,7 +3900,7 @@
     <t>The Fall</t>
   </si>
   <si>
-    <t>The No. 1 Ladies Detective Agency</t>
+    <t>The No. 1 Ladies' Detective Agency</t>
   </si>
   <si>
     <t>Worst Case</t>
@@ -3933,22 +3933,22 @@
     <t>Walk Two Moons</t>
   </si>
   <si>
-    <t>Miss Peregrines Home for Peculiar Children</t>
+    <t>Miss Peregrine's Home for Peculiar Children</t>
   </si>
   <si>
     <t>The Chocolate War</t>
   </si>
   <si>
-    <t>Sophies Choice</t>
+    <t>Sophie's Choice</t>
   </si>
   <si>
     <t>Looking for Alaska</t>
   </si>
   <si>
-    <t>Breakfast at Tiffanys</t>
-  </si>
-  <si>
-    <t>The Razors Edge</t>
+    <t>Breakfast at Tiffany's</t>
+  </si>
+  <si>
+    <t>The Razor's Edge</t>
   </si>
   <si>
     <t>Dreamcatcher</t>
@@ -3978,7 +3978,7 @@
     <t>Diary of a Wimpy Kid</t>
   </si>
   <si>
-    <t>The Memory Keepers Daughter</t>
+    <t>The Memory Keeper's Daughter</t>
   </si>
   <si>
     <t>The Wedding</t>
@@ -3999,7 +3999,7 @@
     <t>The Death of Ivan Ilych</t>
   </si>
   <si>
-    <t>Alex Crosss Trial</t>
+    <t>Alex Cross's Trial</t>
   </si>
   <si>
     <t>Kenilworth</t>
@@ -4029,7 +4029,7 @@
     <t>Swimsuit</t>
   </si>
   <si>
-    <t>Cats Cradle</t>
+    <t>Cat's Cradle</t>
   </si>
   <si>
     <t>The Caine Mutiny</t>
@@ -4302,7 +4302,7 @@
     <t>George Eliot</t>
   </si>
   <si>
-    <t>Madeleine LEngle</t>
+    <t>Madeleine L'Engle</t>
   </si>
   <si>
     <t>H.G. Wells</t>
@@ -4797,7 +4797,7 @@
     <t>Madame de (Marie-Madeleine Pioche de La Vergne) La Fayett</t>
   </si>
   <si>
-    <t>Robert C. OBrien</t>
+    <t>Robert C. O'Brien</t>
   </si>
   <si>
     <t>John Irving</t>
@@ -4854,7 +4854,7 @@
     <t>William Styron</t>
   </si>
   <si>
-    <t>Tim OBrien</t>
+    <t>Tim O'Brien</t>
   </si>
   <si>
     <t>Edwin A. Abbott</t>
@@ -4980,7 +4980,7 @@
     <t>Southpark</t>
   </si>
   <si>
-    <t>Its Always Sunny in Philadelphia</t>
+    <t>It's Always Sunny in Philadelphia</t>
   </si>
   <si>
     <t>Deadwood</t>
@@ -5097,7 +5097,7 @@
     <t>Once Upon a Time</t>
   </si>
   <si>
-    <t>Greys Anatomy</t>
+    <t>Grey's Anatomy</t>
   </si>
   <si>
     <t>Hannibal</t>
@@ -5295,7 +5295,7 @@
     <t>Yellowstone</t>
   </si>
   <si>
-    <t>Handmaids Tale</t>
+    <t>Handmaid's Tale</t>
   </si>
   <si>
     <t>American Gods</t>
